--- a/oni.xlsx
+++ b/oni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\Yuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF90351-293E-4F3A-8843-C4EBA4C78AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3917CF81-2D24-405C-B518-91DCD6EC75D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="10035" xr2:uid="{0D4186B2-482B-4BF3-A05B-9361C99F8840}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="119">
   <si>
     <t>Pricing Report</t>
   </si>
@@ -326,9 +326,6 @@
     <t>ED</t>
   </si>
   <si>
-    <t>Generated: 05/20/2024, 01:38 PM</t>
-  </si>
-  <si>
     <t>CFAS Project #: A02R6E9</t>
   </si>
   <si>
@@ -393,6 +390,9 @@
   </si>
   <si>
     <t>SPRUIELL / TELCO</t>
+  </si>
+  <si>
+    <t>Generated: 05/20/2024, 01:52 PM</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,28 @@
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
@@ -504,20 +525,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -525,17 +534,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42408199-E5D6-4EDF-9571-3533482D19AB}">
-  <dimension ref="A1:G231"/>
+  <dimension ref="A1:G232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G231"/>
+      <selection sqref="A1:G232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -869,7 +869,7 @@
     </row>
     <row r="3" spans="1:7" ht="85.5">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="71.25">
@@ -889,12 +889,12 @@
     </row>
     <row r="7" spans="1:7" ht="71.25">
       <c r="A7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5">
       <c r="A8" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.5">
@@ -904,33 +904,33 @@
     </row>
     <row r="10" spans="1:7" ht="57">
       <c r="A10" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="42.75">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="42.75">
       <c r="A12" s="6"/>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="7">
@@ -951,7 +951,7 @@
     </row>
     <row r="13" spans="1:7" ht="28.5">
       <c r="A13" s="6"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="7">
@@ -972,8 +972,8 @@
     </row>
     <row r="14" spans="1:7" ht="42.75">
       <c r="A14" s="6"/>
-      <c r="B14" s="14" t="s">
-        <v>100</v>
+      <c r="B14" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -993,8 +993,8 @@
     </row>
     <row r="15" spans="1:7" ht="42.75">
       <c r="A15" s="6"/>
-      <c r="B15" s="14" t="s">
-        <v>101</v>
+      <c r="B15" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -1008,13 +1008,13 @@
       <c r="F15" s="7">
         <v>0.5</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="11">
         <v>1093</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.5">
       <c r="A16" s="6"/>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="7">
@@ -1035,7 +1035,7 @@
     </row>
     <row r="17" spans="1:7" ht="28.5">
       <c r="A17" s="6"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="7">
@@ -1056,7 +1056,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="19" spans="1:7" ht="28.5">
       <c r="A19" s="6"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="7" t="s">
         <v>11</v>
       </c>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="7">
         <v>0</v>
       </c>
@@ -1089,13 +1089,13 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <v>2121.0100000000002</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1104,13 +1104,13 @@
     </row>
     <row r="22" spans="1:7" ht="71.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7">
         <v>35.5</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="23" spans="1:7" ht="42.75">
       <c r="A23" s="6"/>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="7"/>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -1149,26 +1149,26 @@
       <c r="A25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="15">
+      <c r="G25" s="11">
         <v>2921.7</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="42.75">
       <c r="A26" s="6"/>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F26" s="7">
         <v>144.88999999999999</v>
@@ -1179,24 +1179,24 @@
     </row>
     <row r="27" spans="1:7" ht="42.75">
       <c r="A27" s="6"/>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="11">
         <v>2251.85</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="6"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1207,33 +1207,33 @@
       <c r="A29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="15">
+      <c r="G29" s="11">
         <v>2699.77</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="28.5">
       <c r="A30" s="6"/>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="15">
+      <c r="G30" s="11">
         <v>30541.51</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="6"/>
-      <c r="B31" s="14"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1244,37 +1244,37 @@
       <c r="A32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="15">
+      <c r="G32" s="11">
         <v>30541.51</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="28.5">
       <c r="A33" s="6"/>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F33" s="7">
         <v>122.22</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="11">
         <v>2931.88</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="6"/>
-      <c r="B34" s="14"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1285,46 +1285,46 @@
       <c r="A35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="15">
+      <c r="G35" s="11">
         <v>2931.88</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="85.5">
       <c r="A36" s="6"/>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="15">
+      <c r="G36" s="11">
         <v>39094.86</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="57">
       <c r="A37" s="6"/>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="15">
+      <c r="G37" s="11">
         <v>8548</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="6"/>
-      <c r="B38" s="14"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1335,20 +1335,20 @@
       <c r="A39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="15">
+      <c r="G39" s="11">
         <v>47642.86</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="6"/>
-      <c r="B40" s="14"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="41" spans="1:7" ht="28.5">
       <c r="A41" s="6"/>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="7"/>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="42" spans="1:7" ht="28.5">
       <c r="A42" s="6"/>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="7"/>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="43" spans="1:7" ht="42.75">
       <c r="A43" s="6"/>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C43" s="7"/>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="44" spans="1:7" ht="85.5">
       <c r="A44" s="3" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="71.25">
@@ -1416,12 +1416,12 @@
     </row>
     <row r="48" spans="1:7" ht="71.25">
       <c r="A48" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="28.5">
       <c r="A49" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="28.5">
@@ -1431,34 +1431,34 @@
     </row>
     <row r="51" spans="1:7" ht="57">
       <c r="A51" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="42.75">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="18"/>
+      <c r="B52" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="6"/>
-      <c r="B53" s="14" t="s">
-        <v>106</v>
+      <c r="B53" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="54" spans="1:7" ht="28.5">
       <c r="A54" s="6"/>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C54" s="7">
@@ -1493,13 +1493,13 @@
       <c r="F54" s="7">
         <v>107.39</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="11">
         <v>4080.82</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="28.5">
       <c r="A55" s="6"/>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C55" s="7">
@@ -1520,8 +1520,8 @@
     </row>
     <row r="56" spans="1:7" ht="42.75">
       <c r="A56" s="6"/>
-      <c r="B56" s="14" t="s">
-        <v>107</v>
+      <c r="B56" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
@@ -1541,8 +1541,8 @@
     </row>
     <row r="57" spans="1:7" ht="42.75">
       <c r="A57" s="6"/>
-      <c r="B57" s="14" t="s">
-        <v>108</v>
+      <c r="B57" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C57" s="7">
         <v>0</v>
@@ -1556,13 +1556,13 @@
       <c r="F57" s="7">
         <v>0.32</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="11">
         <v>1403.52</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="28.5">
       <c r="A58" s="6"/>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C58" s="7">
@@ -1583,8 +1583,8 @@
     </row>
     <row r="59" spans="1:7" ht="42.75">
       <c r="A59" s="6"/>
-      <c r="B59" s="14" t="s">
-        <v>109</v>
+      <c r="B59" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C59" s="7">
         <v>0</v>
@@ -1604,8 +1604,8 @@
     </row>
     <row r="60" spans="1:7" ht="42.75">
       <c r="A60" s="6"/>
-      <c r="B60" s="14" t="s">
-        <v>110</v>
+      <c r="B60" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="C60" s="7">
         <v>0</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="61" spans="1:7" ht="42.75">
       <c r="A61" s="6"/>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C61" s="7">
@@ -1640,14 +1640,14 @@
       <c r="F61" s="7">
         <v>1.8</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="11">
         <v>2503.8000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="42.75">
       <c r="A62" s="6"/>
-      <c r="B62" s="14" t="s">
-        <v>111</v>
+      <c r="B62" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="C62" s="7">
         <v>0</v>
@@ -1661,13 +1661,13 @@
       <c r="F62" s="7">
         <v>1.2</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="11">
         <v>3084</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="6"/>
-      <c r="B63" s="14"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="64" spans="1:7" ht="28.5">
       <c r="A64" s="6"/>
-      <c r="B64" s="14"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="7" t="s">
         <v>11</v>
       </c>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="6"/>
-      <c r="B65" s="14"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="7">
         <v>0</v>
       </c>
@@ -1700,13 +1700,13 @@
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="15">
+      <c r="G65" s="11">
         <v>12093.82</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="6"/>
-      <c r="B66" s="14"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -1715,24 +1715,24 @@
     </row>
     <row r="67" spans="1:7" ht="71.25">
       <c r="A67" s="6"/>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F67" s="7">
         <v>35.5</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G67" s="11">
         <v>12047.9</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="42.75">
       <c r="A68" s="6"/>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C68" s="7"/>
@@ -1743,13 +1743,13 @@
       <c r="F68" s="7">
         <v>0.05</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="11">
         <v>1207.0899999999999</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="6"/>
-      <c r="B69" s="14"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -1760,54 +1760,54 @@
       <c r="A70" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-      <c r="G70" s="15">
+      <c r="G70" s="11">
         <v>25348.799999999999</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="42.75">
       <c r="A71" s="6"/>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F71" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="11">
         <v>35190.43</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="42.75">
       <c r="A72" s="6"/>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F72" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="11">
         <v>13976.16</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="6"/>
-      <c r="B73" s="14"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -1818,33 +1818,33 @@
       <c r="A74" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="15">
+      <c r="G74" s="11">
         <v>49166.59</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="28.5">
       <c r="A75" s="6"/>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-      <c r="G75" s="15">
+      <c r="G75" s="11">
         <v>1328.7</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="6"/>
-      <c r="B76" s="14"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -1855,37 +1855,37 @@
       <c r="A77" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
-      <c r="G77" s="15">
+      <c r="G77" s="11">
         <v>1328.7</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="28.5">
       <c r="A78" s="6"/>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F78" s="7">
         <v>122.22</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G78" s="11">
         <v>5796.86</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="6"/>
-      <c r="B79" s="14"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -1896,46 +1896,46 @@
       <c r="A80" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
-      <c r="G80" s="15">
+      <c r="G80" s="11">
         <v>5796.86</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="85.5">
       <c r="A81" s="6"/>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="15">
+      <c r="G81" s="11">
         <v>81640.960000000006</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="57">
       <c r="A82" s="6"/>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
-      <c r="G82" s="15">
+      <c r="G82" s="11">
         <v>24247</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="6"/>
-      <c r="B83" s="14"/>
+      <c r="B83" s="10"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -1946,20 +1946,20 @@
       <c r="A84" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="15">
+      <c r="G84" s="11">
         <v>105887.96</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="6"/>
-      <c r="B85" s="14"/>
+      <c r="B85" s="10"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="86" spans="1:7" ht="28.5">
       <c r="A86" s="6"/>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C86" s="7"/>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="87" spans="1:7" ht="28.5">
       <c r="A87" s="6"/>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C87" s="7"/>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="88" spans="1:7" ht="42.75">
       <c r="A88" s="6"/>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C88" s="7"/>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="89" spans="1:7" ht="85.5">
       <c r="A89" s="3" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="71.25">
@@ -2027,12 +2027,12 @@
     </row>
     <row r="93" spans="1:7" ht="71.25">
       <c r="A93" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="28.5">
       <c r="A94" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="28.5">
@@ -2042,33 +2042,33 @@
     </row>
     <row r="96" spans="1:7" ht="57">
       <c r="A96" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="42.75">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12" t="s">
+      <c r="A97" s="18"/>
+      <c r="B97" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="13" t="s">
+      <c r="E97" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F97" s="13" t="s">
+      <c r="F97" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="11" t="s">
+      <c r="G97" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="42.75">
       <c r="A98" s="6"/>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C98" s="7">
@@ -2089,7 +2089,7 @@
     </row>
     <row r="99" spans="1:7" ht="28.5">
       <c r="A99" s="6"/>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C99" s="7">
@@ -2110,7 +2110,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="6"/>
-      <c r="B100" s="14"/>
+      <c r="B100" s="10"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="101" spans="1:7" ht="28.5">
       <c r="A101" s="6"/>
-      <c r="B101" s="14"/>
+      <c r="B101" s="10"/>
       <c r="C101" s="7" t="s">
         <v>11</v>
       </c>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="6"/>
-      <c r="B102" s="14"/>
+      <c r="B102" s="10"/>
       <c r="C102" s="7">
         <v>0</v>
       </c>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="6"/>
-      <c r="B103" s="14"/>
+      <c r="B103" s="10"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="6"/>
-      <c r="B104" s="14"/>
+      <c r="B104" s="10"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -2169,7 +2169,7 @@
       <c r="A105" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C105" s="7"/>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="106" spans="1:7" ht="42.75">
       <c r="A106" s="6"/>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C106" s="7"/>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="107" spans="1:7" ht="42.75">
       <c r="A107" s="6"/>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C107" s="7"/>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="6"/>
-      <c r="B108" s="14"/>
+      <c r="B108" s="10"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -2227,7 +2227,7 @@
       <c r="A109" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C109" s="7"/>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="110" spans="1:7" ht="28.5">
       <c r="A110" s="6"/>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C110" s="7"/>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="6"/>
-      <c r="B111" s="14"/>
+      <c r="B111" s="10"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -2264,7 +2264,7 @@
       <c r="A112" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C112" s="7"/>
@@ -2277,13 +2277,13 @@
     </row>
     <row r="113" spans="1:7" ht="28.5">
       <c r="A113" s="6"/>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F113" s="7">
         <v>122.22</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="6"/>
-      <c r="B114" s="14"/>
+      <c r="B114" s="10"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -2305,7 +2305,7 @@
       <c r="A115" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C115" s="7"/>
@@ -2318,275 +2318,277 @@
     </row>
     <row r="116" spans="1:7" ht="85.5">
       <c r="A116" s="6"/>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
-      <c r="G116" s="15">
+      <c r="G116" s="11">
         <v>1006.87</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" ht="57">
       <c r="A117" s="6"/>
-      <c r="B117" s="14"/>
+      <c r="B117" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
-      <c r="G117" s="6"/>
-    </row>
-    <row r="118" spans="1:7" ht="28.5">
-      <c r="A118" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="G117" s="6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="6"/>
+      <c r="B118" s="10"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
-      <c r="G118" s="15">
-        <v>1006.87</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="6"/>
-      <c r="B119" s="14"/>
+      <c r="G118" s="6"/>
+    </row>
+    <row r="119" spans="1:7" ht="28.5">
+      <c r="A119" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
-      <c r="G119" s="6"/>
-    </row>
-    <row r="120" spans="1:7" ht="28.5">
+      <c r="G119" s="11">
+        <v>1171.8699999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="6"/>
-      <c r="B120" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="B120" s="10"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
-      <c r="E120" s="7">
-        <v>0</v>
-      </c>
+      <c r="E120" s="7"/>
       <c r="F120" s="7"/>
       <c r="G120" s="6"/>
     </row>
     <row r="121" spans="1:7" ht="28.5">
       <c r="A121" s="6"/>
-      <c r="B121" s="14" t="s">
-        <v>25</v>
+      <c r="B121" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="F121" s="7"/>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="1:7" ht="42.75">
+    <row r="122" spans="1:7" ht="28.5">
       <c r="A122" s="6"/>
-      <c r="B122" s="14" t="s">
-        <v>26</v>
+      <c r="B122" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="F122" s="7"/>
       <c r="G122" s="6"/>
     </row>
-    <row r="123" spans="1:7" ht="85.5">
-      <c r="A123" s="3" t="s">
+    <row r="123" spans="1:7" ht="42.75">
+      <c r="A123" s="6"/>
+      <c r="B123" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7">
+        <v>0</v>
+      </c>
+      <c r="F123" s="7"/>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="1:7" ht="85.5">
+      <c r="A124" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="71.25">
+      <c r="A125" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="99.75">
+      <c r="A126" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="71.25">
+      <c r="A128" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="71.25">
-      <c r="A124" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="99.75">
-      <c r="A125" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="71.25">
-      <c r="A127" s="3" t="s">
+    <row r="129" spans="1:5" ht="28.5">
+      <c r="A129" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="28.5">
-      <c r="A128" s="3" t="s">
+    <row r="130" spans="1:5" ht="57">
+      <c r="A130" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="57">
-      <c r="A129" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="57">
-      <c r="A130" s="16" t="s">
+    <row r="131" spans="1:5" ht="57">
+      <c r="A131" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B131" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C131" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D130" s="13" t="s">
+      <c r="D131" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="E131" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="8" t="s">
+    <row r="132" spans="1:5">
+      <c r="A132" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B131" s="17">
-        <v>154537.69</v>
-      </c>
-      <c r="C131" s="7">
-        <v>0</v>
-      </c>
-      <c r="D131" s="7">
-        <v>0</v>
-      </c>
-      <c r="E131" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="28.5">
-      <c r="A132" s="8"/>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="12">
+        <v>154702.69</v>
+      </c>
+      <c r="C132" s="7">
+        <v>0</v>
+      </c>
+      <c r="D132" s="7">
+        <v>0</v>
+      </c>
+      <c r="E132" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="28.5">
+      <c r="A133" s="8"/>
+      <c r="B133" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C133" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D133" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E133" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="8"/>
-      <c r="B133" s="17">
-        <v>154537.69</v>
-      </c>
-      <c r="C133" s="7">
-        <v>0</v>
-      </c>
-      <c r="D133" s="7">
-        <v>0</v>
-      </c>
-      <c r="E133" s="6">
-        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="8"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="6"/>
-    </row>
-    <row r="135" spans="1:5" ht="42.75">
-      <c r="A135" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="B134" s="12">
+        <v>154702.69</v>
+      </c>
+      <c r="C134" s="7">
+        <v>0</v>
+      </c>
+      <c r="D134" s="7">
+        <v>0</v>
+      </c>
+      <c r="E134" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="8"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="7">
-        <v>0</v>
-      </c>
+      <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="6"/>
     </row>
     <row r="136" spans="1:5" ht="42.75">
       <c r="A136" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="7">
-        <v>1105.7159999999999</v>
+        <v>0</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="8"/>
+    <row r="137" spans="1:5" ht="42.75">
+      <c r="A137" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
+      <c r="C137" s="7">
+        <v>1105.7159999999999</v>
+      </c>
       <c r="D137" s="7"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5" ht="71.25">
-      <c r="A138" s="8" t="s">
-        <v>19</v>
-      </c>
+    <row r="138" spans="1:5">
+      <c r="A138" s="8"/>
       <c r="B138" s="7"/>
-      <c r="C138" s="18">
-        <v>32823.69</v>
-      </c>
+      <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="6"/>
     </row>
     <row r="139" spans="1:5" ht="71.25">
       <c r="A139" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B139" s="7"/>
-      <c r="C139" s="18">
-        <v>8782.1299999999992</v>
+      <c r="C139" s="13">
+        <v>32823.69</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="1:5" ht="85.5">
+    <row r="140" spans="1:5" ht="71.25">
       <c r="A140" s="8" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B140" s="7"/>
-      <c r="C140" s="18">
-        <v>154537.69</v>
+      <c r="C140" s="13">
+        <v>8782.1299999999992</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="1:5" ht="57">
+    <row r="141" spans="1:5" ht="85.5">
       <c r="A141" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B141" s="7"/>
-      <c r="C141" s="18">
-        <v>154537.69</v>
+      <c r="C141" s="13">
+        <v>154702.69</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="1:5" ht="42.75">
-      <c r="A142" s="8"/>
-      <c r="B142" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C142" s="7">
-        <v>357.97</v>
+    <row r="142" spans="1:5" ht="57">
+      <c r="A142" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c r="C142" s="13">
+        <v>154702.69</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="6"/>
@@ -2594,29 +2596,29 @@
     <row r="143" spans="1:5" ht="42.75">
       <c r="A143" s="8"/>
       <c r="B143" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C143" s="7">
-        <v>71.86</v>
+        <v>357.97</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="1:5" ht="57">
+    <row r="144" spans="1:5" ht="42.75">
       <c r="A144" s="8"/>
       <c r="B144" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C144" s="7">
-        <v>0</v>
+        <v>71.86</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="1:5" ht="71.25">
+    <row r="145" spans="1:5" ht="57">
       <c r="A145" s="8"/>
       <c r="B145" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C145" s="7">
         <v>0</v>
@@ -2624,835 +2626,846 @@
       <c r="D145" s="7"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="1:5" ht="85.5">
-      <c r="A146" s="3" t="s">
+    <row r="146" spans="1:5" ht="71.25">
+      <c r="A146" s="8"/>
+      <c r="B146" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C146" s="7">
+        <v>0</v>
+      </c>
+      <c r="D146" s="7"/>
+      <c r="E146" s="6"/>
+    </row>
+    <row r="147" spans="1:5" ht="85.5">
+      <c r="A147" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="71.25">
+      <c r="A148" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="85.5">
+      <c r="A149" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="71.25">
+      <c r="A151" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="71.25">
-      <c r="A147" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="85.5">
-      <c r="A148" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="71.25">
-      <c r="A150" s="3" t="s">
+    <row r="152" spans="1:5" ht="28.5">
+      <c r="A152" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="28.5">
-      <c r="A151" s="3" t="s">
+    <row r="153" spans="1:5" ht="57">
+      <c r="A153" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="57">
-      <c r="A152" s="5" t="s">
+    <row r="154" spans="1:5" ht="42.75">
+      <c r="A154" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E154" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="57">
+      <c r="A155" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="42.75">
-      <c r="A153" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B153" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C153" s="13" t="s">
+      <c r="B155" s="7">
+        <v>0</v>
+      </c>
+      <c r="C155" s="7">
+        <v>605</v>
+      </c>
+      <c r="D155" s="7">
+        <v>0</v>
+      </c>
+      <c r="E155" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="28.5">
+      <c r="A156" s="8"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="28.5">
+      <c r="A157" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7">
+        <v>605</v>
+      </c>
+      <c r="D157" s="7">
+        <v>0</v>
+      </c>
+      <c r="E157" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="42.75">
+      <c r="A158" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B158" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C158" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D153" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="57">
-      <c r="A154" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B154" s="7">
-        <v>0</v>
-      </c>
-      <c r="C154" s="7">
-        <v>605</v>
-      </c>
-      <c r="D154" s="7">
-        <v>0</v>
-      </c>
-      <c r="E154" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="28.5">
-      <c r="A155" s="8"/>
-      <c r="B155" s="7"/>
-      <c r="C155" s="7" t="s">
+      <c r="D158" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="21"/>
+    </row>
+    <row r="159" spans="1:5" ht="42.75">
+      <c r="A159" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159" s="7">
+        <v>8</v>
+      </c>
+      <c r="C159" s="7">
         <v>11</v>
       </c>
-      <c r="D155" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="28.5">
-      <c r="A156" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7">
-        <v>605</v>
-      </c>
-      <c r="D156" s="7">
-        <v>0</v>
-      </c>
-      <c r="E156" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="42.75">
-      <c r="A157" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B157" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E157" s="16"/>
-    </row>
-    <row r="158" spans="1:5" ht="42.75">
-      <c r="A158" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B158" s="7">
-        <v>8</v>
-      </c>
-      <c r="C158" s="7">
-        <v>11</v>
-      </c>
-      <c r="D158" s="7">
+      <c r="D159" s="7">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="E158" s="8"/>
-    </row>
-    <row r="159" spans="1:5" ht="57">
-      <c r="A159" s="8" t="s">
+      <c r="E159" s="8"/>
+    </row>
+    <row r="160" spans="1:5" ht="57">
+      <c r="A160" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B160" s="7">
+        <v>12</v>
+      </c>
+      <c r="C160" s="7">
+        <v>2</v>
+      </c>
+      <c r="D160" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E160" s="8"/>
+    </row>
+    <row r="161" spans="1:5" ht="42.75">
+      <c r="A161" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B159" s="7">
-        <v>12</v>
-      </c>
-      <c r="C159" s="7">
-        <v>2</v>
-      </c>
-      <c r="D159" s="7">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E159" s="8"/>
-    </row>
-    <row r="160" spans="1:5" ht="42.75">
-      <c r="A160" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B160" s="7">
+      <c r="B161" s="7">
         <v>24</v>
       </c>
-      <c r="C160" s="7">
+      <c r="C161" s="7">
         <v>4386</v>
       </c>
-      <c r="D160" s="7">
+      <c r="D161" s="7">
         <v>103.34399999999999</v>
-      </c>
-      <c r="E160" s="8"/>
-    </row>
-    <row r="161" spans="1:5" ht="57">
-      <c r="A161" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B161" s="7">
-        <v>0</v>
-      </c>
-      <c r="C161" s="7">
-        <v>8848</v>
-      </c>
-      <c r="D161" s="7">
-        <v>0</v>
       </c>
       <c r="E161" s="8"/>
     </row>
     <row r="162" spans="1:5" ht="57">
       <c r="A162" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B162" s="7">
+        <v>0</v>
+      </c>
+      <c r="C162" s="7">
+        <v>8848</v>
+      </c>
+      <c r="D162" s="7">
+        <v>0</v>
+      </c>
+      <c r="E162" s="8"/>
+    </row>
+    <row r="163" spans="1:5" ht="57">
+      <c r="A163" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B163" s="7">
+        <v>24</v>
+      </c>
+      <c r="C163" s="7">
+        <v>1243</v>
+      </c>
+      <c r="D163" s="7">
+        <v>29.352</v>
+      </c>
+      <c r="E163" s="8"/>
+    </row>
+    <row r="164" spans="1:5" ht="42.75">
+      <c r="A164" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B162" s="7">
-        <v>24</v>
-      </c>
-      <c r="C162" s="7">
-        <v>1243</v>
-      </c>
-      <c r="D162" s="7">
-        <v>29.352</v>
-      </c>
-      <c r="E162" s="8"/>
-    </row>
-    <row r="163" spans="1:5" ht="42.75">
-      <c r="A163" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B163" s="7">
+      <c r="B164" s="7">
         <v>48</v>
       </c>
-      <c r="C163" s="7">
+      <c r="C164" s="7">
         <v>1276</v>
       </c>
-      <c r="D163" s="7">
+      <c r="D164" s="7">
         <v>60.287999999999997</v>
-      </c>
-      <c r="E163" s="8"/>
-    </row>
-    <row r="164" spans="1:5" ht="57">
-      <c r="A164" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B164" s="7">
-        <v>216</v>
-      </c>
-      <c r="C164" s="7">
-        <v>1391</v>
-      </c>
-      <c r="D164" s="7">
-        <v>296.13600000000002</v>
       </c>
       <c r="E164" s="8"/>
     </row>
     <row r="165" spans="1:5" ht="57">
       <c r="A165" s="8" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="B165" s="7">
+        <v>216</v>
+      </c>
+      <c r="C165" s="7">
+        <v>1391</v>
+      </c>
+      <c r="D165" s="7">
+        <v>296.13600000000002</v>
+      </c>
+      <c r="E165" s="8"/>
+    </row>
+    <row r="166" spans="1:5" ht="57">
+      <c r="A166" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B166" s="7">
         <v>144</v>
       </c>
-      <c r="C165" s="7">
+      <c r="C166" s="7">
         <v>2570</v>
       </c>
-      <c r="D165" s="7">
+      <c r="D166" s="7">
         <v>367.2</v>
       </c>
-      <c r="E165" s="8"/>
-    </row>
-    <row r="166" spans="1:5" ht="42.75">
-      <c r="A166" s="8" t="s">
+      <c r="E166" s="8"/>
+    </row>
+    <row r="167" spans="1:5" ht="42.75">
+      <c r="A167" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B166" s="7">
+      <c r="B167" s="7">
         <v>216</v>
       </c>
-      <c r="C166" s="7">
+      <c r="C167" s="7">
         <v>692</v>
       </c>
-      <c r="D166" s="7">
+      <c r="D167" s="7">
         <v>145.15199999999999</v>
       </c>
-      <c r="E166" s="8"/>
-    </row>
-    <row r="167" spans="1:5" ht="57">
-      <c r="A167" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B167" s="7">
+      <c r="E167" s="8"/>
+    </row>
+    <row r="168" spans="1:5" ht="57">
+      <c r="A168" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B168" s="7">
         <v>48</v>
       </c>
-      <c r="C167" s="7">
+      <c r="C168" s="7">
         <v>2186</v>
       </c>
-      <c r="D167" s="7">
+      <c r="D168" s="7">
         <v>103.968</v>
       </c>
-      <c r="E167" s="8"/>
-    </row>
-    <row r="168" spans="1:5" ht="28.5">
-      <c r="A168" s="8"/>
-      <c r="B168" s="7"/>
-      <c r="C168" s="7" t="s">
+      <c r="E168" s="8"/>
+    </row>
+    <row r="169" spans="1:5" ht="28.5">
+      <c r="A169" s="8"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D169" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E168" s="8"/>
-    </row>
-    <row r="169" spans="1:5" ht="28.5">
-      <c r="A169" s="8" t="s">
+      <c r="E169" s="8"/>
+    </row>
+    <row r="170" spans="1:5" ht="28.5">
+      <c r="A170" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7">
+      <c r="B170" s="7"/>
+      <c r="C170" s="7">
         <v>22605</v>
       </c>
-      <c r="D169" s="7">
+      <c r="D170" s="7">
         <v>1105.5519999999999</v>
       </c>
-      <c r="E169" s="8"/>
-    </row>
-    <row r="170" spans="1:5" ht="85.5">
-      <c r="A170" s="3" t="s">
+      <c r="E170" s="8"/>
+    </row>
+    <row r="171" spans="1:5" ht="85.5">
+      <c r="A171" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="71.25">
+      <c r="A172" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="114">
+      <c r="A173" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="71.25">
+      <c r="A175" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="71.25">
-      <c r="A171" s="3" t="s">
+    <row r="176" spans="1:5" ht="28.5">
+      <c r="A176" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="57">
+      <c r="A177" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="156.75">
+      <c r="A178" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="185.25">
+      <c r="A179" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="85.5">
+      <c r="A180" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="71.25">
+      <c r="A181" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="114">
-      <c r="A172" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="71.25">
-      <c r="A174" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="28.5">
-      <c r="A175" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="57">
-      <c r="A176" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="156.75">
-      <c r="A177" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="185.25">
-      <c r="A178" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="85.5">
-      <c r="A179" s="3" t="s">
+    <row r="182" spans="1:3" ht="57">
+      <c r="A182" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="71.25">
+      <c r="A184" s="3" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="71.25">
-      <c r="A180" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="57">
-      <c r="A181" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="71.25">
-      <c r="A183" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="28.5">
-      <c r="A184" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="28.5">
       <c r="A185" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="28.5">
+      <c r="A186" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="57">
-      <c r="A186" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A187" s="22" t="s">
+    <row r="187" spans="1:3" ht="57">
+      <c r="A187" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A188" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B187" s="22"/>
-      <c r="C187" s="20"/>
-    </row>
-    <row r="188" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A188" s="10" t="s">
+      <c r="B188" s="24"/>
+      <c r="C188" s="23"/>
+    </row>
+    <row r="189" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A189" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B188" s="10"/>
-      <c r="C188" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B189" s="9">
-        <v>0</v>
-      </c>
-      <c r="C189" s="23"/>
+      <c r="B189" s="15"/>
+      <c r="C189" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B190" s="9">
+        <v>0</v>
+      </c>
+      <c r="C190" s="17"/>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B190" s="9">
-        <v>0</v>
-      </c>
-      <c r="C190" s="23"/>
-    </row>
-    <row r="191" spans="1:3" ht="28.5">
-      <c r="A191" s="8" t="s">
+      <c r="B191" s="9">
+        <v>0</v>
+      </c>
+      <c r="C191" s="17"/>
+    </row>
+    <row r="192" spans="1:3" ht="28.5">
+      <c r="A192" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B191" s="9">
-        <v>0</v>
-      </c>
-      <c r="C191" s="23"/>
-    </row>
-    <row r="192" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A192" s="10" t="s">
+      <c r="B192" s="9">
+        <v>0</v>
+      </c>
+      <c r="C192" s="17"/>
+    </row>
+    <row r="193" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A193" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B192" s="10"/>
-      <c r="C192" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B193" s="9">
-        <v>0</v>
-      </c>
-      <c r="C193" s="23"/>
+      <c r="B193" s="15"/>
+      <c r="C193" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B194" s="9">
+        <v>0</v>
+      </c>
+      <c r="C194" s="17"/>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B194" s="9">
-        <v>0</v>
-      </c>
-      <c r="C194" s="23"/>
-    </row>
-    <row r="195" spans="1:3" ht="28.5">
-      <c r="A195" s="8" t="s">
+      <c r="B195" s="9">
+        <v>0</v>
+      </c>
+      <c r="C195" s="17"/>
+    </row>
+    <row r="196" spans="1:3" ht="28.5">
+      <c r="A196" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B195" s="9">
-        <v>0</v>
-      </c>
-      <c r="C195" s="23"/>
-    </row>
-    <row r="196" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A196" s="10" t="s">
+      <c r="B196" s="9">
+        <v>0</v>
+      </c>
+      <c r="C196" s="17"/>
+    </row>
+    <row r="197" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A197" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B196" s="10"/>
-      <c r="C196" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B197" s="9">
-        <v>0</v>
-      </c>
-      <c r="C197" s="23"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B198" s="9">
+        <v>0</v>
+      </c>
+      <c r="C198" s="17"/>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B198" s="9">
-        <v>0</v>
-      </c>
-      <c r="C198" s="23"/>
-    </row>
-    <row r="199" spans="1:3" ht="28.5">
-      <c r="A199" s="8" t="s">
+      <c r="B199" s="9">
+        <v>0</v>
+      </c>
+      <c r="C199" s="17"/>
+    </row>
+    <row r="200" spans="1:3" ht="28.5">
+      <c r="A200" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B199" s="9">
-        <v>0</v>
-      </c>
-      <c r="C199" s="23"/>
-    </row>
-    <row r="200" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A200" s="10" t="s">
+      <c r="B200" s="9">
+        <v>0</v>
+      </c>
+      <c r="C200" s="17"/>
+    </row>
+    <row r="201" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A201" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B200" s="10"/>
-      <c r="C200" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B201" s="9">
-        <v>0</v>
-      </c>
-      <c r="C201" s="23"/>
+      <c r="B201" s="15"/>
+      <c r="C201" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B202" s="9">
+        <v>0</v>
+      </c>
+      <c r="C202" s="17"/>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B202" s="9">
-        <v>0</v>
-      </c>
-      <c r="C202" s="23"/>
-    </row>
-    <row r="203" spans="1:3" ht="28.5">
-      <c r="A203" s="8" t="s">
+      <c r="B203" s="9">
+        <v>0</v>
+      </c>
+      <c r="C203" s="17"/>
+    </row>
+    <row r="204" spans="1:3" ht="28.5">
+      <c r="A204" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B203" s="9">
-        <v>0</v>
-      </c>
-      <c r="C203" s="23"/>
-    </row>
-    <row r="204" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A204" s="10" t="s">
+      <c r="B204" s="9">
+        <v>0</v>
+      </c>
+      <c r="C204" s="17"/>
+    </row>
+    <row r="205" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A205" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B204" s="10"/>
-      <c r="C204" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B205" s="9">
-        <v>0</v>
-      </c>
-      <c r="C205" s="23"/>
+      <c r="B205" s="15"/>
+      <c r="C205" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B206" s="9">
+        <v>0</v>
+      </c>
+      <c r="C206" s="17"/>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B206" s="9">
-        <v>0</v>
-      </c>
-      <c r="C206" s="23"/>
-    </row>
-    <row r="207" spans="1:3" ht="28.5">
-      <c r="A207" s="8" t="s">
+      <c r="B207" s="9">
+        <v>0</v>
+      </c>
+      <c r="C207" s="17"/>
+    </row>
+    <row r="208" spans="1:3" ht="28.5">
+      <c r="A208" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B207" s="9">
-        <v>0</v>
-      </c>
-      <c r="C207" s="23"/>
-    </row>
-    <row r="208" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A208" s="10" t="s">
+      <c r="B208" s="9">
+        <v>0</v>
+      </c>
+      <c r="C208" s="17"/>
+    </row>
+    <row r="209" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A209" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B208" s="10"/>
-      <c r="C208" s="24">
-        <v>32795</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B209" s="21">
-        <v>8548</v>
-      </c>
-      <c r="C209" s="24"/>
+      <c r="B209" s="15"/>
+      <c r="C209" s="16">
+        <v>32960</v>
+      </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B210" s="14">
+        <v>8548</v>
+      </c>
+      <c r="C210" s="16"/>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B210" s="21">
+      <c r="B211" s="14">
         <v>24247</v>
       </c>
-      <c r="C210" s="24"/>
-    </row>
-    <row r="211" spans="1:3" ht="28.5">
-      <c r="A211" s="8" t="s">
+      <c r="C211" s="16"/>
+    </row>
+    <row r="212" spans="1:3" ht="28.5">
+      <c r="A212" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B211" s="9">
-        <v>0</v>
-      </c>
-      <c r="C211" s="24"/>
-    </row>
-    <row r="212" spans="1:3" ht="28.5">
-      <c r="A212" s="10"/>
-      <c r="B212" s="10"/>
-      <c r="C212" s="9" t="s">
+      <c r="B212" s="9">
+        <v>165</v>
+      </c>
+      <c r="C212" s="16"/>
+    </row>
+    <row r="213" spans="1:3" ht="28.5">
+      <c r="A213" s="15"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="10" t="s">
+    <row r="214" spans="1:3">
+      <c r="A214" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B213" s="10"/>
-      <c r="C213" s="24">
-        <v>32795</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="10"/>
-      <c r="B214" s="10"/>
-      <c r="C214" s="24"/>
-    </row>
-    <row r="215" spans="1:3" ht="99.75">
-      <c r="A215" s="16" t="s">
+      <c r="B214" s="15"/>
+      <c r="C214" s="16">
+        <v>32960</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="15"/>
+      <c r="B215" s="15"/>
+      <c r="C215" s="16"/>
+    </row>
+    <row r="216" spans="1:3" ht="99.75">
+      <c r="A216" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B215" s="20"/>
-    </row>
-    <row r="216" spans="1:3" ht="85.5">
-      <c r="A216" s="8" t="s">
+      <c r="B216" s="23"/>
+    </row>
+    <row r="217" spans="1:3" ht="85.5">
+      <c r="A217" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B216" s="24">
-        <v>32795</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="8"/>
-      <c r="B217" s="24"/>
-    </row>
-    <row r="218" spans="1:3" ht="85.5">
-      <c r="A218" s="3" t="s">
+      <c r="B217" s="16">
+        <v>32960</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="8"/>
+      <c r="B218" s="16"/>
+    </row>
+    <row r="219" spans="1:3" ht="85.5">
+      <c r="A219" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="71.25">
+      <c r="A220" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="71.25">
+      <c r="A221" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="71.25">
+      <c r="A223" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="71.25">
-      <c r="A219" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="71.25">
-      <c r="A220" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="71.25">
-      <c r="A222" s="3" t="s">
+    <row r="224" spans="1:3" ht="28.5">
+      <c r="A224" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="28.5">
-      <c r="A223" s="3" t="s">
+    <row r="225" spans="1:7" ht="57">
+      <c r="A225" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="57">
-      <c r="A224" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="71.25">
-      <c r="A225" s="16" t="s">
+    <row r="226" spans="1:7" ht="71.25">
+      <c r="A226" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B225" s="12" t="s">
+      <c r="B226" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C225" s="12" t="s">
+      <c r="C226" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D225" s="12" t="s">
+      <c r="D226" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E225" s="13" t="s">
+      <c r="E226" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F225" s="13" t="s">
+      <c r="F226" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G225" s="11" t="s">
+      <c r="G226" s="18" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="42.75">
-      <c r="A226" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B226" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C226" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D226" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E226" s="7">
-        <v>57.08</v>
-      </c>
-      <c r="F226" s="7">
-        <v>144.88999999999999</v>
-      </c>
-      <c r="G226" s="15">
-        <v>8270.32</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="42.75">
       <c r="A227" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B227" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C227" s="14" t="s">
+      <c r="B227" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D227" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D227" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E227" s="7">
-        <v>263.35000000000002</v>
+        <v>57.08</v>
       </c>
       <c r="F227" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G227" s="15">
-        <v>38156.78</v>
+      <c r="G227" s="11">
+        <v>8270.32</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="42.75">
       <c r="A228" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B228" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C228" s="14" t="s">
+      <c r="B228" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D228" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D228" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E228" s="7">
-        <v>0</v>
+        <v>263.35000000000002</v>
       </c>
       <c r="F228" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G228" s="6">
-        <v>0</v>
+      <c r="G228" s="11">
+        <v>38156.78</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="42.75">
       <c r="A229" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B229" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C229" s="14" t="s">
+      <c r="B229" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D229" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D229" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E229" s="7">
-        <v>37.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="F229" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G229" s="15">
+      <c r="G229" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="42.75">
+      <c r="A230" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D230" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E230" s="7">
+        <v>37.369999999999997</v>
+      </c>
+      <c r="F230" s="7">
+        <v>144.88999999999999</v>
+      </c>
+      <c r="G230" s="11">
         <v>5414.54</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="28.5">
-      <c r="A230" s="8"/>
-      <c r="B230" s="14"/>
-      <c r="C230" s="14"/>
-      <c r="D230" s="14"/>
-      <c r="E230" s="7" t="s">
+    <row r="231" spans="1:7" ht="28.5">
+      <c r="A231" s="8"/>
+      <c r="B231" s="10"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F230" s="7"/>
-      <c r="G230" s="6" t="s">
+      <c r="F231" s="7"/>
+      <c r="G231" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="8"/>
-      <c r="B231" s="14"/>
-      <c r="C231" s="14"/>
-      <c r="D231" s="14"/>
-      <c r="E231" s="7">
+    <row r="232" spans="1:7">
+      <c r="A232" s="8"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="7">
         <v>357.8</v>
       </c>
-      <c r="F231" s="7"/>
-      <c r="G231" s="15">
+      <c r="F232" s="7"/>
+      <c r="G232" s="11">
         <v>51866.22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C189:C192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C197:C200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:C204"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="C205:C208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="C209:C212"/>
     <mergeCell ref="A214:B214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="A187:B187"/>
     <mergeCell ref="A188:B188"/>
-    <mergeCell ref="C188:C191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="C196:C199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="C204:C207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="C208:C211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A213:B213"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
